--- a/data/pca/factorExposure/factorExposure_2012-08-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-27.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002451956431275556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001878520235748398</v>
+      </c>
+      <c r="C2">
+        <v>0.02885017047560558</v>
+      </c>
+      <c r="D2">
+        <v>0.004210199335888379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.000676336530363057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006670587658053532</v>
+      </c>
+      <c r="C4">
+        <v>0.08387334098120766</v>
+      </c>
+      <c r="D4">
+        <v>0.06709150863132662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.006152322840632021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01517529807347491</v>
+      </c>
+      <c r="C6">
+        <v>0.1184200934483986</v>
+      </c>
+      <c r="D6">
+        <v>0.02039508432886575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001159455687279886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004984812775155775</v>
+      </c>
+      <c r="C7">
+        <v>0.05917332390894226</v>
+      </c>
+      <c r="D7">
+        <v>0.03108835175584358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007379317983870464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004942364063161722</v>
+      </c>
+      <c r="C8">
+        <v>0.03600440692216249</v>
+      </c>
+      <c r="D8">
+        <v>0.03879387539388926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0002522029424659845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005619104134052708</v>
+      </c>
+      <c r="C9">
+        <v>0.07203621642206333</v>
+      </c>
+      <c r="D9">
+        <v>0.07337223988640203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0006875729978395597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002027497807354169</v>
+      </c>
+      <c r="C10">
+        <v>0.05196737916079454</v>
+      </c>
+      <c r="D10">
+        <v>-0.1851799227700383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0003513359366704888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005971968656030715</v>
+      </c>
+      <c r="C11">
+        <v>0.08080229335727904</v>
+      </c>
+      <c r="D11">
+        <v>0.06618231420406184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0002020776512117728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004498058398585674</v>
+      </c>
+      <c r="C12">
+        <v>0.06507399994129809</v>
+      </c>
+      <c r="D12">
+        <v>0.05026570884971446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002654963001011691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008696770264675271</v>
+      </c>
+      <c r="C13">
+        <v>0.07108611623094209</v>
+      </c>
+      <c r="D13">
+        <v>0.05707836842286396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001528089424348533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007911122541502444</v>
+      </c>
+      <c r="C14">
+        <v>0.0432100686310296</v>
+      </c>
+      <c r="D14">
+        <v>0.01069766545384317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001881202847102444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005945061074806694</v>
+      </c>
+      <c r="C15">
+        <v>0.04062202612941734</v>
+      </c>
+      <c r="D15">
+        <v>0.02829082417757534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0006651767326085168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005432692910343081</v>
+      </c>
+      <c r="C16">
+        <v>0.06485178288094684</v>
+      </c>
+      <c r="D16">
+        <v>0.05793782681299588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.003107759051749558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008843810967169206</v>
+      </c>
+      <c r="C20">
+        <v>0.06418100078033773</v>
+      </c>
+      <c r="D20">
+        <v>0.05138978966442202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005515890510062498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009311015259340067</v>
+      </c>
+      <c r="C21">
+        <v>0.02016156312641709</v>
+      </c>
+      <c r="D21">
+        <v>0.03905416520714521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02026467213791641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.008161093016998629</v>
+      </c>
+      <c r="C22">
+        <v>0.08666181585178756</v>
+      </c>
+      <c r="D22">
+        <v>0.1268649624234374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01992738502902148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007868609946552368</v>
+      </c>
+      <c r="C23">
+        <v>0.08706931845840457</v>
+      </c>
+      <c r="D23">
+        <v>0.1279819627351711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.000970455515782208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005967376177630533</v>
+      </c>
+      <c r="C24">
+        <v>0.07726321355950512</v>
+      </c>
+      <c r="D24">
+        <v>0.06679441880648063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00234974141380022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003468592262093349</v>
+      </c>
+      <c r="C25">
+        <v>0.07823479579734498</v>
+      </c>
+      <c r="D25">
+        <v>0.06526820669604511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001069534921485864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003555226875897127</v>
+      </c>
+      <c r="C26">
+        <v>0.03946393019440544</v>
+      </c>
+      <c r="D26">
+        <v>0.02158532939266202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006674945580184833</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002277988384522109</v>
+      </c>
+      <c r="C28">
+        <v>0.1025967075673779</v>
+      </c>
+      <c r="D28">
+        <v>-0.3249336209248472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0004794467243587769</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00320559067107128</v>
+      </c>
+      <c r="C29">
+        <v>0.04739635937774862</v>
+      </c>
+      <c r="D29">
+        <v>0.010631220356341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002232165333849897</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009221776860524219</v>
+      </c>
+      <c r="C30">
+        <v>0.1409398034650591</v>
+      </c>
+      <c r="D30">
+        <v>0.1078324631369174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002140260433824362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006206038126793715</v>
+      </c>
+      <c r="C31">
+        <v>0.04386858654799733</v>
+      </c>
+      <c r="D31">
+        <v>0.0316168133316751</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006986483920988495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004265694163587267</v>
+      </c>
+      <c r="C32">
+        <v>0.03882044995665668</v>
+      </c>
+      <c r="D32">
+        <v>0.01910538025640265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0007018556821123457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008841569844863497</v>
+      </c>
+      <c r="C33">
+        <v>0.09042908888285438</v>
+      </c>
+      <c r="D33">
+        <v>0.06232916560840339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0006953316628810246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004592460235299356</v>
+      </c>
+      <c r="C34">
+        <v>0.05822623999805392</v>
+      </c>
+      <c r="D34">
+        <v>0.05844973107809646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002175132579234599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005300297076368037</v>
+      </c>
+      <c r="C35">
+        <v>0.04067014462019412</v>
+      </c>
+      <c r="D35">
+        <v>0.01483350482467064</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004172189408023769</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00138849050920003</v>
+      </c>
+      <c r="C36">
+        <v>0.02519876874886522</v>
+      </c>
+      <c r="D36">
+        <v>0.02212425955511369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002916876937791259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009022661122557431</v>
+      </c>
+      <c r="C38">
+        <v>0.04126907560828456</v>
+      </c>
+      <c r="D38">
+        <v>0.01293141397104615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01088109021931253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001911780800779036</v>
+      </c>
+      <c r="C39">
+        <v>0.1124208022625462</v>
+      </c>
+      <c r="D39">
+        <v>0.08008345776798875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00360074247670004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002666426832874441</v>
+      </c>
+      <c r="C40">
+        <v>0.09140945755280866</v>
+      </c>
+      <c r="D40">
+        <v>0.01699589669700897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002545420889802589</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007525134041223356</v>
+      </c>
+      <c r="C41">
+        <v>0.04133230149957694</v>
+      </c>
+      <c r="D41">
+        <v>0.04037355682352125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001589411573171121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003976685412136327</v>
+      </c>
+      <c r="C43">
+        <v>0.05405448721214225</v>
+      </c>
+      <c r="D43">
+        <v>0.02801556274225875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007396003735855764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.001843433923919401</v>
+      </c>
+      <c r="C44">
+        <v>0.1046802385482249</v>
+      </c>
+      <c r="D44">
+        <v>0.067923732202662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001091417666968995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001567514820108313</v>
+      </c>
+      <c r="C46">
+        <v>0.03277334258074079</v>
+      </c>
+      <c r="D46">
+        <v>0.03303538702720548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0001147346619000045</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002799061483820467</v>
+      </c>
+      <c r="C47">
+        <v>0.03530214742806193</v>
+      </c>
+      <c r="D47">
+        <v>0.02165830192024315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004965806240077297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007605812092186497</v>
+      </c>
+      <c r="C48">
+        <v>0.03305859346693506</v>
+      </c>
+      <c r="D48">
+        <v>0.03122223759926876</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005264233097448344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01741828929695776</v>
+      </c>
+      <c r="C49">
+        <v>0.1868788780802294</v>
+      </c>
+      <c r="D49">
+        <v>0.008356742934192004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-6.35081136281183e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004059656407301562</v>
+      </c>
+      <c r="C50">
+        <v>0.04275154054947836</v>
+      </c>
+      <c r="D50">
+        <v>0.03923599418111511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-2.479687384574768e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003845656403435676</v>
+      </c>
+      <c r="C51">
+        <v>0.02653908656149904</v>
+      </c>
+      <c r="D51">
+        <v>0.02442297775873957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.009134501625904042</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02159366393988233</v>
+      </c>
+      <c r="C53">
+        <v>0.171763722661131</v>
+      </c>
+      <c r="D53">
+        <v>0.01991992227099121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004035541447613183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009472554751573012</v>
+      </c>
+      <c r="C54">
+        <v>0.05679849312352841</v>
+      </c>
+      <c r="D54">
+        <v>0.04132526348659932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002237364550272917</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01009966547718735</v>
+      </c>
+      <c r="C55">
+        <v>0.1084506397140542</v>
+      </c>
+      <c r="D55">
+        <v>0.03568995404196153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01001759457775611</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02154522406024133</v>
+      </c>
+      <c r="C56">
+        <v>0.1746602324625457</v>
+      </c>
+      <c r="D56">
+        <v>0.0146079105496042</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001488424964424433</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01648423104687239</v>
+      </c>
+      <c r="C58">
+        <v>0.1071401780499916</v>
+      </c>
+      <c r="D58">
+        <v>0.06633062513026697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002629132611735909</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009317782661425926</v>
+      </c>
+      <c r="C59">
+        <v>0.1676176706131508</v>
+      </c>
+      <c r="D59">
+        <v>-0.3459650172533665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.009256713421146501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02633522746209533</v>
+      </c>
+      <c r="C60">
+        <v>0.2236270123571326</v>
+      </c>
+      <c r="D60">
+        <v>0.01641091240519874</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.009797574322976541</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002065640818957219</v>
+      </c>
+      <c r="C61">
+        <v>0.09386253653040373</v>
+      </c>
+      <c r="D61">
+        <v>0.05895811544288402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.150163575899818</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1526840265712405</v>
+      </c>
+      <c r="C62">
+        <v>0.1016971079872782</v>
+      </c>
+      <c r="D62">
+        <v>0.0165414660832485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001791463199154522</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006583851517999576</v>
+      </c>
+      <c r="C63">
+        <v>0.05352938437973821</v>
+      </c>
+      <c r="D63">
+        <v>0.03399813251696456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01094765951928551</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01699624858779761</v>
+      </c>
+      <c r="C64">
+        <v>0.1063145228756486</v>
+      </c>
+      <c r="D64">
+        <v>0.05394499769537475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008882887195586111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01808971928090314</v>
+      </c>
+      <c r="C65">
+        <v>0.1204344437598266</v>
+      </c>
+      <c r="D65">
+        <v>0.02634427199810958</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.0004510812414277363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01303987969228083</v>
+      </c>
+      <c r="C66">
+        <v>0.1601841686535753</v>
+      </c>
+      <c r="D66">
+        <v>0.1127994357551629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006229619348964706</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01544733730358068</v>
+      </c>
+      <c r="C67">
+        <v>0.0738703358680208</v>
+      </c>
+      <c r="D67">
+        <v>0.02360040521847674</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004817512346333461</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-1.11755764076584e-05</v>
+      </c>
+      <c r="C68">
+        <v>0.0844202545980394</v>
+      </c>
+      <c r="D68">
+        <v>-0.2579205025728218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0001209450821157482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006154788243305534</v>
+      </c>
+      <c r="C69">
+        <v>0.05220629435946038</v>
+      </c>
+      <c r="D69">
+        <v>0.03783311957562122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001381924445542033</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002531089557282732</v>
+      </c>
+      <c r="C70">
+        <v>0.008565289761690568</v>
+      </c>
+      <c r="D70">
+        <v>-0.002376880502489962</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0001789089838527075</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004588164178722043</v>
+      </c>
+      <c r="C71">
+        <v>0.08899904133907646</v>
+      </c>
+      <c r="D71">
+        <v>-0.3012448738046362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005606133097054312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01831698002398732</v>
+      </c>
+      <c r="C72">
+        <v>0.1587039861216154</v>
+      </c>
+      <c r="D72">
+        <v>0.006604466571610288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0104882734525494</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03120336306306976</v>
+      </c>
+      <c r="C73">
+        <v>0.2820301384973892</v>
+      </c>
+      <c r="D73">
+        <v>0.05565247905849142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00490216125628511</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002074365729328901</v>
+      </c>
+      <c r="C74">
+        <v>0.1029434688930355</v>
+      </c>
+      <c r="D74">
+        <v>0.03363629180755696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0001114465387867856</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01163080505145717</v>
+      </c>
+      <c r="C75">
+        <v>0.1204550780771804</v>
+      </c>
+      <c r="D75">
+        <v>0.02727990208219993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01163928504064051</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02197903882585126</v>
+      </c>
+      <c r="C76">
+        <v>0.1461105183921317</v>
+      </c>
+      <c r="D76">
+        <v>0.05735712653530436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00743684075847482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02135448505232114</v>
+      </c>
+      <c r="C77">
+        <v>0.1101495485586097</v>
+      </c>
+      <c r="D77">
+        <v>0.04738292917063296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005251721649293533</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01432576857140195</v>
+      </c>
+      <c r="C78">
+        <v>0.09881041883327826</v>
+      </c>
+      <c r="D78">
+        <v>0.08201331505800542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02820754350160849</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03932823047296819</v>
+      </c>
+      <c r="C79">
+        <v>0.1571998104103141</v>
+      </c>
+      <c r="D79">
+        <v>0.03021071176376897</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006392534507182291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009415239310768205</v>
+      </c>
+      <c r="C80">
+        <v>0.04000229837993372</v>
+      </c>
+      <c r="D80">
+        <v>0.03101285612504742</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005502886043213164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01629166921666536</v>
+      </c>
+      <c r="C81">
+        <v>0.1307128161986238</v>
+      </c>
+      <c r="D81">
+        <v>0.03778344641716399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008443074126782803</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01984383950869932</v>
+      </c>
+      <c r="C82">
+        <v>0.1365402055430642</v>
+      </c>
+      <c r="D82">
+        <v>0.03726055154216199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00392668755393257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0122660679576841</v>
+      </c>
+      <c r="C83">
+        <v>0.06485138353404774</v>
+      </c>
+      <c r="D83">
+        <v>0.04497163385362998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004223859172257325</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006397675294546561</v>
+      </c>
+      <c r="C84">
+        <v>0.03470498185199376</v>
+      </c>
+      <c r="D84">
+        <v>0.01153304441144353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01954164186896411</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02922896373098555</v>
+      </c>
+      <c r="C85">
+        <v>0.1234614717359296</v>
+      </c>
+      <c r="D85">
+        <v>0.03987836832470706</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002225347032971526</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003884766000031833</v>
+      </c>
+      <c r="C86">
+        <v>0.05046629184073641</v>
+      </c>
+      <c r="D86">
+        <v>0.0260684202497315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001811373019977691</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01164718091653017</v>
+      </c>
+      <c r="C87">
+        <v>0.1287998529947003</v>
+      </c>
+      <c r="D87">
+        <v>0.07259591740707885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008374263163868405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002903921438940514</v>
+      </c>
+      <c r="C88">
+        <v>0.06344647645024723</v>
+      </c>
+      <c r="D88">
+        <v>0.02895834642267121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01162520330076929</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003180612630462602</v>
+      </c>
+      <c r="C89">
+        <v>0.134298015735443</v>
+      </c>
+      <c r="D89">
+        <v>-0.3168549930329234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00205781115287196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005423209882862217</v>
+      </c>
+      <c r="C90">
+        <v>0.115457753221451</v>
+      </c>
+      <c r="D90">
+        <v>-0.3144319432695424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.003129342053005155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01127164947289237</v>
+      </c>
+      <c r="C91">
+        <v>0.09913161865061888</v>
+      </c>
+      <c r="D91">
+        <v>0.02937492336831334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005948181050850617</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000473597803148859</v>
+      </c>
+      <c r="C92">
+        <v>0.1295849766660846</v>
+      </c>
+      <c r="D92">
+        <v>-0.3264827054762816</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002047997190109445</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003020956533637426</v>
+      </c>
+      <c r="C93">
+        <v>0.1037281242780887</v>
+      </c>
+      <c r="D93">
+        <v>-0.3012485172589846</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01082285939747213</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0222476686381628</v>
+      </c>
+      <c r="C94">
+        <v>0.1399639684525212</v>
+      </c>
+      <c r="D94">
+        <v>0.05452957561301806</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.00731369973089058</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01596356965849443</v>
+      </c>
+      <c r="C95">
+        <v>0.1204996602434293</v>
+      </c>
+      <c r="D95">
+        <v>0.06586509378650855</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0177800420488802</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03747072850869729</v>
+      </c>
+      <c r="C97">
+        <v>0.2255250763147276</v>
+      </c>
+      <c r="D97">
+        <v>-0.002345942260572774</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0129391220796794</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03940565881035414</v>
+      </c>
+      <c r="C98">
+        <v>0.2618566144223853</v>
+      </c>
+      <c r="D98">
+        <v>0.02887284491462904</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.986346505602429</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9806216959819927</v>
+      </c>
+      <c r="C99">
+        <v>-0.12118556122793</v>
+      </c>
+      <c r="D99">
+        <v>-0.02482458007156756</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0005030087429761111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003198178037705505</v>
+      </c>
+      <c r="C101">
+        <v>0.0475783039511475</v>
+      </c>
+      <c r="D101">
+        <v>0.01130798306179146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
